--- a/testing/results_new_dataset/GPT-4/HISS_GPT_4.xlsx
+++ b/testing/results_new_dataset/GPT-4/HISS_GPT_4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="340">
   <si>
     <t>Statement</t>
   </si>
@@ -1025,6 +1025,15 @@
   </si>
   <si>
     <t>The claim that Dick Cheney said it's an old wives' story that Margaret Thatcher told George H.W. Bush not to go wobbly is supported by the information provided. Both subclaims have been verified and found to be true. Dick Cheney did make a statement about Margaret Thatcher's advice to George H.W. Bush, and he did say that it's an old wives' story that Margaret Thatcher told George H.W. Bush not to go wobbly.</t>
+  </si>
+  <si>
+    <t>Perry pushed for a law that lets insurance companies raise homeowners’ rates without having to justify the increase.</t>
+  </si>
+  <si>
+    <t>Back to Basics</t>
+  </si>
+  <si>
+    <t>The claim that Perry pushed for a law that allows insurance companies to raise homeowners’ rates without having to justify the increase is supported by the information provided. Perry did indeed push for a law related to insurance companies, and this law does allow for insurance companies to raise homeowners’ rates without justification.</t>
   </si>
 </sst>
 </file>
@@ -1409,7 +1418,7 @@
     <col min="6" max="6" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3406,12 +3415,24 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25">
-      <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
+      <c r="A101" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
